--- a/assets/plantilla-2n.xlsx
+++ b/assets/plantilla-2n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidgaston/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D72006B-1098-BA4D-8CDF-1CECF094E7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569B105-167D-144E-A730-AC6A3F92AD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17040" xr2:uid="{10DD84E8-1D55-4FEB-8F5C-B85C57B03137}"/>
   </bookViews>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General_)"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm;@"/>
@@ -191,6 +191,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="d/m/yyyy;@"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00\ [$€-C0A];\-#,##0.00\ [$€-C0A]"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -509,9 +510,6 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -540,8 +538,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +549,13 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,7 +877,7 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD179"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -921,14 +924,14 @@
       <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>7420</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
@@ -956,7 +959,7 @@
       <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="46" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="15" t="s">
@@ -984,7 +987,7 @@
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="50"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18" t="s">
         <v>16</v>
@@ -994,1077 +997,1077 @@
       <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="30">
+      <c r="A7" s="42"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="29">
         <f t="shared" ref="K7:K56" si="0">SUM(C7:J7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="44"/>
+      <c r="L7" s="51"/>
       <c r="M7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="44"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="43"/>
       <c r="M8" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="44"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="43"/>
       <c r="M9" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="43"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="44"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="43"/>
       <c r="M10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="44"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="43"/>
       <c r="M11" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="44"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="43"/>
       <c r="M12" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="44"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="43"/>
       <c r="M13" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="44"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="43"/>
       <c r="M14" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="44"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="43"/>
       <c r="M15" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="44"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="43"/>
       <c r="M16" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="44"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="43"/>
       <c r="M17" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="44"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="43"/>
       <c r="M18" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="44"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="43"/>
       <c r="M19" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="44"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="43"/>
       <c r="M20" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="44"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="43"/>
       <c r="M21" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="44"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="43"/>
       <c r="M22" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="44"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="43"/>
       <c r="M23" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="44"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="43"/>
       <c r="M24" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="44"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="43"/>
       <c r="M25" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="44"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="43"/>
       <c r="M26" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="44"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="43"/>
       <c r="M27" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="44"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="43"/>
       <c r="M28" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="44"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="43"/>
       <c r="M29" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="44"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="43"/>
       <c r="M30" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="44"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="43"/>
       <c r="M31" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="44"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="43"/>
       <c r="M32" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="44"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="43"/>
       <c r="M33" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="44"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="43"/>
       <c r="M34" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="44"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="43"/>
       <c r="M35" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="44"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="43"/>
       <c r="M36" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="44"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="43"/>
       <c r="M37" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="44"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="43"/>
       <c r="M38" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="44"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="43"/>
       <c r="M39" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="44"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="43"/>
       <c r="M40" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="44"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="43"/>
       <c r="M41" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A42" s="43"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="44"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="43"/>
       <c r="M42" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="44"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L43" s="43"/>
       <c r="M43" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="44"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="43"/>
       <c r="M44" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="44"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="43"/>
       <c r="M45" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="44"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="43"/>
       <c r="M46" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="44"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="43"/>
       <c r="M47" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A48" s="43"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="44"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="43"/>
       <c r="M48" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="44"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="43"/>
       <c r="M49" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="44"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="43"/>
       <c r="M50" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="44"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="43"/>
       <c r="M51" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="44"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="43"/>
       <c r="M52" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="44"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="43"/>
       <c r="M53" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="44"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="43"/>
       <c r="M54" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="44"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="43"/>
       <c r="M55" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="43"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="44"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="43"/>
       <c r="M56" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" customHeight="1">
-      <c r="A57" s="43"/>
+      <c r="A57" s="42"/>
       <c r="B57" s="21"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="30">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="29">
         <f t="shared" ref="K57" si="1">SUM(C57:J57)</f>
         <v>0</v>
       </c>
-      <c r="L57" s="38"/>
+      <c r="L57" s="37"/>
       <c r="M57" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="25">
-      <c r="C58" s="35">
-        <f>SUM(C7:C57)</f>
-        <v>0</v>
-      </c>
-      <c r="D58" s="35">
-        <f>SUM(D7:D57)</f>
-        <v>0</v>
-      </c>
-      <c r="E58" s="35">
-        <f>SUM(E7:E57)</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="35">
-        <f>SUM(F7:F57)</f>
-        <v>0</v>
-      </c>
-      <c r="G58" s="35">
-        <f>SUM(G7:G57)</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="35">
-        <f>SUM(H7:H57)</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="35">
-        <f>SUM(I7:I57)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="35">
-        <f>SUM(J7:J57)</f>
-        <v>0</v>
-      </c>
-      <c r="K58" s="37">
-        <f>SUM(K7:K57)</f>
-        <v>0</v>
-      </c>
-      <c r="L58" s="39"/>
+      <c r="C58" s="34">
+        <f t="shared" ref="C58:K58" si="2">SUM(C7:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="38"/>
     </row>
     <row r="59" spans="1:13" ht="27.75" customHeight="1">
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D59" s="51"/>
-      <c r="E59" s="45">
-        <v>0</v>
-      </c>
-      <c r="K59" s="42">
+      <c r="D59" s="48"/>
+      <c r="E59" s="44">
+        <v>0</v>
+      </c>
+      <c r="K59" s="41">
         <f>E59</f>
         <v>0</v>
       </c>
-      <c r="L59" s="40" t="s">
+      <c r="L59" s="39" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2079,11 +2082,11 @@
       <c r="J60" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="K60" s="37">
+      <c r="K60" s="36">
         <f>SUM(K58:K59)</f>
         <v>0</v>
       </c>
-      <c r="L60" s="41" t="s">
+      <c r="L60" s="40" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2105,12 +2108,12 @@
     </row>
     <row r="64" spans="1:13">
       <c r="C64" s="5"/>
-      <c r="F64" s="31"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="5"/>
     </row>
     <row r="65" spans="1:12" ht="16" customHeight="1">
       <c r="C65" s="5"/>
-      <c r="F65" s="31"/>
+      <c r="F65" s="30"/>
       <c r="G65" s="5"/>
     </row>
     <row r="66" spans="1:12" ht="16" customHeight="1">
